--- a/Total.xlsx
+++ b/Total.xlsx
@@ -413,19 +413,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>6941.8154</v>
+        <v>6940.9662</v>
       </c>
       <c r="C2" t="n">
-        <v>2586.2035</v>
+        <v>2585.9934</v>
       </c>
       <c r="D2" t="n">
-        <v>524.9169</v>
+        <v>524.9756</v>
       </c>
       <c r="E2" t="n">
-        <v>188.5463</v>
+        <v>188.5021</v>
       </c>
       <c r="F2" t="n">
-        <v>674.165</v>
+        <v>673.8576</v>
       </c>
       <c r="G2" t="n">
         <v>698.996</v>
@@ -551,22 +551,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>257.3007</v>
+        <v>255.3549</v>
       </c>
       <c r="C8" t="n">
-        <v>106.5693</v>
+        <v>105.9701</v>
       </c>
       <c r="D8" t="n">
-        <v>65.3916</v>
+        <v>65.4385</v>
       </c>
       <c r="E8" t="n">
-        <v>8.7368</v>
+        <v>8.6781</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2315</v>
+        <v>1.8771</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2439</v>
+        <v>6.1841</v>
       </c>
     </row>
     <row r="9">
